--- a/src/test/resources/testdata/UserRegistrationData.xlsx
+++ b/src/test/resources/testdata/UserRegistrationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14377\eclipse-workspace\numpy_ninja_ds_algo\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB593E-984D-4096-BD74-E9F4132332D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04AE56-3F35-4F77-8B82-F71555431C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAA46405-1568-4D3D-9B09-5FCA782EBB91}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -91,23 +91,47 @@
     <t>You are logged in</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>print("hello")</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>DSAlgo</t>
+  </si>
+  <si>
+    <t>NumpyNinja</t>
+  </si>
+  <si>
+    <t>['apples', 'bananas', 'cucumbers', 'dates', 'strawberries', 'oranges']</t>
+  </si>
+  <si>
+    <t>NameError: name 'apples' is not defined on line 3</t>
+  </si>
+  <si>
+    <t>['apples', 'banana', 'carrots', 'cucumbers', 'dates', 'strawberries']</t>
+  </si>
+  <si>
+    <t>NameError: name 'Walnuts' is not defined on line 2</t>
+  </si>
+  <si>
+    <t>[['Ann', 'Ben', 'Cathy', 'Daisy', 'Snow', 'Bob']]</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>submission success</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +142,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,6 +183,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,55 +670,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7899FCC8-E0E7-4A96-AA9A-6C49307782C2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
